--- a/Bus Planning.xlsx
+++ b/Bus Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/872575_fontys_nl/Documents/Documenten/Python/PJ5 Dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rensk\OneDrive\Documents\Toegepaste Wiskunde\Data Science\Jaar 2\renskeiscool\Porject_Group5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_0399E22E9067360E62355476585DCE3A87431D38" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE366500-D517-4BCD-A4AF-9BBB621D2634}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7B8792-FE95-46E0-AC59-A75AC2C796B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2355,13 +2355,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H721"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A651" zoomScale="122" workbookViewId="0">
+      <selection activeCell="J706" sqref="J706"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2387,7 +2391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2410,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2436,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2459,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2485,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2508,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2534,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2557,7 +2561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2583,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2606,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2632,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2655,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2681,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2704,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2730,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2753,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2779,7 +2783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2802,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2828,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2851,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2877,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2900,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2926,7 +2930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2949,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2975,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2998,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3024,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -3047,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3073,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3090,13 +3094,13 @@
         <v>12</v>
       </c>
       <c r="G30">
-        <v>-157.5</v>
+        <v>1.98</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -3113,13 +3117,13 @@
         <v>52</v>
       </c>
       <c r="G31">
-        <v>1.98</v>
+        <v>-157.5</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -3142,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -3168,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3191,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -3217,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -3243,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -3266,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3289,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -3315,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -3338,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -3364,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -3387,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -3413,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -3436,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3462,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -3485,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -3511,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -3534,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3560,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -3583,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -3606,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3629,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -3655,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -3678,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -3704,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -3727,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -3753,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -3776,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -3802,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -3825,7 +3829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -3851,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -3877,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -3900,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -3923,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -3946,7 +3950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -3972,7 +3976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -3995,7 +3999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -4021,7 +4025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -4047,7 +4051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -4070,7 +4074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -4093,7 +4097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -4119,7 +4123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -4142,7 +4146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -4168,7 +4172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -4191,7 +4195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -4217,7 +4221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -4240,7 +4244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -4266,7 +4270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -4289,7 +4293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -4315,7 +4319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -4338,7 +4342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -4364,7 +4368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -4387,7 +4391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -4413,7 +4417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -4436,7 +4440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -4462,7 +4466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -4485,7 +4489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -4511,7 +4515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -4534,7 +4538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -4560,7 +4564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -4583,7 +4587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -4609,7 +4613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -4632,7 +4636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -4655,7 +4659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -4678,7 +4682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -4704,7 +4708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -4727,7 +4731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -4753,7 +4757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -4779,7 +4783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -4802,7 +4806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -4825,7 +4829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -4851,7 +4855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -4874,7 +4878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -4900,7 +4904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -4923,7 +4927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -4949,7 +4953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -4972,7 +4976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -4998,7 +5002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -5021,7 +5025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -5047,7 +5051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -5070,7 +5074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -5096,7 +5100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -5119,7 +5123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -5145,7 +5149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -5168,7 +5172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -5191,7 +5195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -5214,7 +5218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -5240,7 +5244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -5263,7 +5267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -5289,7 +5293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -5312,7 +5316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -5338,7 +5342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -5361,7 +5365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -5387,7 +5391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -5410,7 +5414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -5436,7 +5440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -5459,7 +5463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -5482,7 +5486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -5508,7 +5512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -5531,7 +5535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>13</v>
       </c>
@@ -5557,7 +5561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -5580,7 +5584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>13</v>
       </c>
@@ -5606,7 +5610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -5629,7 +5633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -5655,7 +5659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -5678,7 +5682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -5704,7 +5708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -5727,7 +5731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -5753,7 +5757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -5776,7 +5780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -5802,7 +5806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -5825,7 +5829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -5851,7 +5855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -5874,7 +5878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -5900,7 +5904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -5923,7 +5927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -5949,7 +5953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -5972,7 +5976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -5998,7 +6002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -6021,7 +6025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -6047,7 +6051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -6070,7 +6074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -6096,7 +6100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -6119,7 +6123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -6145,7 +6149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -6168,7 +6172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -6191,7 +6195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -6214,7 +6218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -6240,7 +6244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -6263,7 +6267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -6289,7 +6293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -6315,7 +6319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -6338,7 +6342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -6361,7 +6365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -6387,7 +6391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -6410,7 +6414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -6436,7 +6440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -6459,7 +6463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -6485,7 +6489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>9</v>
       </c>
@@ -6508,7 +6512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -6534,7 +6538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -6557,7 +6561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -6583,7 +6587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -6609,7 +6613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -6632,7 +6636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -6655,7 +6659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -6681,7 +6685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -6704,7 +6708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -6727,7 +6731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -6776,7 +6780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -6799,7 +6803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -6822,7 +6826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -6848,7 +6852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -6871,7 +6875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -6897,7 +6901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -6920,7 +6924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -6946,7 +6950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -6969,7 +6973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -6995,7 +6999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -7018,7 +7022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -7044,7 +7048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -7067,7 +7071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -7093,7 +7097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -7116,7 +7120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>13</v>
       </c>
@@ -7142,7 +7146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -7165,7 +7169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -7191,7 +7195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -7214,7 +7218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -7240,7 +7244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -7263,7 +7267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -7289,7 +7293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -7312,7 +7316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -7338,7 +7342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>9</v>
       </c>
@@ -7361,7 +7365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -7387,7 +7391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>9</v>
       </c>
@@ -7410,7 +7414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -7436,7 +7440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -7459,7 +7463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -7485,7 +7489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -7508,7 +7512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -7531,7 +7535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -7554,7 +7558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -7580,7 +7584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>9</v>
       </c>
@@ -7603,7 +7607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -7629,7 +7633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -7652,7 +7656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -7678,7 +7682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>13</v>
       </c>
@@ -7701,7 +7705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -7727,7 +7731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -7750,7 +7754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -7776,7 +7780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -7799,7 +7803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -7822,7 +7826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -7845,7 +7849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>9</v>
       </c>
@@ -7871,7 +7875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -7894,7 +7898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -7917,7 +7921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>9</v>
       </c>
@@ -7943,7 +7947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -7966,7 +7970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -7992,7 +7996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -8015,7 +8019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -8041,7 +8045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -8064,7 +8068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -8090,7 +8094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>13</v>
       </c>
@@ -8113,7 +8117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -8139,7 +8143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>9</v>
       </c>
@@ -8162,7 +8166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>13</v>
       </c>
@@ -8188,7 +8192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>9</v>
       </c>
@@ -8211,7 +8215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -8237,7 +8241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -8260,7 +8264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -8286,7 +8290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>9</v>
       </c>
@@ -8309,7 +8313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -8335,7 +8339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>9</v>
       </c>
@@ -8358,7 +8362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -8384,7 +8388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>9</v>
       </c>
@@ -8407,7 +8411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -8433,7 +8437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>9</v>
       </c>
@@ -8456,7 +8460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>9</v>
       </c>
@@ -8482,7 +8486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>13</v>
       </c>
@@ -8505,7 +8509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -8531,7 +8535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>9</v>
       </c>
@@ -8554,7 +8558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>9</v>
       </c>
@@ -8580,7 +8584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -8603,7 +8607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>13</v>
       </c>
@@ -8629,7 +8633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -8652,7 +8656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -8675,7 +8679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>8</v>
       </c>
@@ -8698,7 +8702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -8724,7 +8728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>13</v>
       </c>
@@ -8747,7 +8751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>13</v>
       </c>
@@ -8773,7 +8777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>9</v>
       </c>
@@ -8796,7 +8800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -8822,7 +8826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>13</v>
       </c>
@@ -8845,7 +8849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>13</v>
       </c>
@@ -8871,7 +8875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -8894,7 +8898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>13</v>
       </c>
@@ -8920,7 +8924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>9</v>
       </c>
@@ -8943,7 +8947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>8</v>
       </c>
@@ -8966,7 +8970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>9</v>
       </c>
@@ -8992,7 +8996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>13</v>
       </c>
@@ -9015,7 +9019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>13</v>
       </c>
@@ -9041,7 +9045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -9064,7 +9068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>13</v>
       </c>
@@ -9090,7 +9094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>9</v>
       </c>
@@ -9113,7 +9117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>13</v>
       </c>
@@ -9139,7 +9143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>9</v>
       </c>
@@ -9162,7 +9166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>13</v>
       </c>
@@ -9188,7 +9192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>9</v>
       </c>
@@ -9211,7 +9215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -9237,7 +9241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>9</v>
       </c>
@@ -9260,7 +9264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>13</v>
       </c>
@@ -9286,7 +9290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>9</v>
       </c>
@@ -9309,7 +9313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>13</v>
       </c>
@@ -9335,7 +9339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>9</v>
       </c>
@@ -9358,7 +9362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>13</v>
       </c>
@@ -9384,7 +9388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -9407,7 +9411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>13</v>
       </c>
@@ -9433,7 +9437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -9456,7 +9460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>13</v>
       </c>
@@ -9482,7 +9486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>9</v>
       </c>
@@ -9505,7 +9509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>8</v>
       </c>
@@ -9528,7 +9532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>8</v>
       </c>
@@ -9551,7 +9555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>13</v>
       </c>
@@ -9577,7 +9581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>9</v>
       </c>
@@ -9600,7 +9604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>9</v>
       </c>
@@ -9626,7 +9630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>13</v>
       </c>
@@ -9649,7 +9653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>13</v>
       </c>
@@ -9675,7 +9679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>9</v>
       </c>
@@ -9698,7 +9702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>9</v>
       </c>
@@ -9724,7 +9728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>13</v>
       </c>
@@ -9747,7 +9751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>13</v>
       </c>
@@ -9773,7 +9777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>9</v>
       </c>
@@ -9796,7 +9800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>13</v>
       </c>
@@ -9822,7 +9826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>9</v>
       </c>
@@ -9845,7 +9849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -9871,7 +9875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>13</v>
       </c>
@@ -9894,7 +9898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>13</v>
       </c>
@@ -9920,7 +9924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>9</v>
       </c>
@@ -9943,7 +9947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>8</v>
       </c>
@@ -9966,7 +9970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>9</v>
       </c>
@@ -9992,7 +9996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>13</v>
       </c>
@@ -10015,7 +10019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>13</v>
       </c>
@@ -10041,7 +10045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>9</v>
       </c>
@@ -10064,7 +10068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>13</v>
       </c>
@@ -10090,7 +10094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>9</v>
       </c>
@@ -10113,7 +10117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>13</v>
       </c>
@@ -10139,7 +10143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -10162,7 +10166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>13</v>
       </c>
@@ -10188,7 +10192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>9</v>
       </c>
@@ -10211,7 +10215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>13</v>
       </c>
@@ -10237,7 +10241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>9</v>
       </c>
@@ -10260,7 +10264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>13</v>
       </c>
@@ -10286,7 +10290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>9</v>
       </c>
@@ -10309,7 +10313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>13</v>
       </c>
@@ -10335,7 +10339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>9</v>
       </c>
@@ -10358,7 +10362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>13</v>
       </c>
@@ -10384,7 +10388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>9</v>
       </c>
@@ -10407,7 +10411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>13</v>
       </c>
@@ -10433,7 +10437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>9</v>
       </c>
@@ -10456,7 +10460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>13</v>
       </c>
@@ -10482,7 +10486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>9</v>
       </c>
@@ -10505,7 +10509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>8</v>
       </c>
@@ -10528,7 +10532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>8</v>
       </c>
@@ -10551,7 +10555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>13</v>
       </c>
@@ -10577,7 +10581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>9</v>
       </c>
@@ -10603,7 +10607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -10626,7 +10630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>13</v>
       </c>
@@ -10649,7 +10653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>13</v>
       </c>
@@ -10675,7 +10679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>9</v>
       </c>
@@ -10698,7 +10702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>13</v>
       </c>
@@ -10724,7 +10728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>9</v>
       </c>
@@ -10747,7 +10751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>13</v>
       </c>
@@ -10773,7 +10777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>9</v>
       </c>
@@ -10796,7 +10800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>13</v>
       </c>
@@ -10822,7 +10826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>9</v>
       </c>
@@ -10845,7 +10849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>9</v>
       </c>
@@ -10871,7 +10875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>13</v>
       </c>
@@ -10894,7 +10898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>13</v>
       </c>
@@ -10920,7 +10924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -10943,7 +10947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>8</v>
       </c>
@@ -10966,7 +10970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>9</v>
       </c>
@@ -10992,7 +10996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>13</v>
       </c>
@@ -11015,7 +11019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>13</v>
       </c>
@@ -11041,7 +11045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>9</v>
       </c>
@@ -11064,7 +11068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>13</v>
       </c>
@@ -11090,7 +11094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>9</v>
       </c>
@@ -11113,7 +11117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>13</v>
       </c>
@@ -11139,7 +11143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>9</v>
       </c>
@@ -11162,7 +11166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>13</v>
       </c>
@@ -11188,7 +11192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>9</v>
       </c>
@@ -11211,7 +11215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>13</v>
       </c>
@@ -11237,7 +11241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>9</v>
       </c>
@@ -11260,7 +11264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>13</v>
       </c>
@@ -11286,7 +11290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>9</v>
       </c>
@@ -11309,7 +11313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>13</v>
       </c>
@@ -11335,7 +11339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>9</v>
       </c>
@@ -11358,7 +11362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>13</v>
       </c>
@@ -11384,7 +11388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>9</v>
       </c>
@@ -11407,7 +11411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>13</v>
       </c>
@@ -11433,7 +11437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>9</v>
       </c>
@@ -11456,7 +11460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>13</v>
       </c>
@@ -11482,7 +11486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>9</v>
       </c>
@@ -11505,7 +11509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>8</v>
       </c>
@@ -11528,7 +11532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>8</v>
       </c>
@@ -11551,7 +11555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>9</v>
       </c>
@@ -11577,7 +11581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>13</v>
       </c>
@@ -11600,7 +11604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>13</v>
       </c>
@@ -11626,7 +11630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>9</v>
       </c>
@@ -11649,7 +11653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>13</v>
       </c>
@@ -11675,7 +11679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>9</v>
       </c>
@@ -11698,7 +11702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>13</v>
       </c>
@@ -11724,7 +11728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>9</v>
       </c>
@@ -11747,7 +11751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>13</v>
       </c>
@@ -11773,7 +11777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>9</v>
       </c>
@@ -11796,7 +11800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>9</v>
       </c>
@@ -11822,7 +11826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>13</v>
       </c>
@@ -11845,7 +11849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>13</v>
       </c>
@@ -11871,7 +11875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>9</v>
       </c>
@@ -11894,7 +11898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>9</v>
       </c>
@@ -11920,7 +11924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>13</v>
       </c>
@@ -11943,7 +11947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>8</v>
       </c>
@@ -11966,7 +11970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>9</v>
       </c>
@@ -11992,7 +11996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>13</v>
       </c>
@@ -12015,7 +12019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>13</v>
       </c>
@@ -12041,7 +12045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>9</v>
       </c>
@@ -12064,7 +12068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>9</v>
       </c>
@@ -12090,7 +12094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>13</v>
       </c>
@@ -12113,7 +12117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>13</v>
       </c>
@@ -12139,7 +12143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>9</v>
       </c>
@@ -12162,7 +12166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>9</v>
       </c>
@@ -12188,7 +12192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>13</v>
       </c>
@@ -12211,7 +12215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>13</v>
       </c>
@@ -12237,7 +12241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>9</v>
       </c>
@@ -12260,7 +12264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>9</v>
       </c>
@@ -12286,7 +12290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>13</v>
       </c>
@@ -12309,7 +12313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>13</v>
       </c>
@@ -12335,7 +12339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>9</v>
       </c>
@@ -12358,7 +12362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>9</v>
       </c>
@@ -12384,7 +12388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>13</v>
       </c>
@@ -12407,7 +12411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>13</v>
       </c>
@@ -12433,7 +12437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>9</v>
       </c>
@@ -12456,7 +12460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>9</v>
       </c>
@@ -12482,7 +12486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>13</v>
       </c>
@@ -12505,7 +12509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>13</v>
       </c>
@@ -12531,7 +12535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>9</v>
       </c>
@@ -12554,7 +12558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>9</v>
       </c>
@@ -12580,7 +12584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>13</v>
       </c>
@@ -12603,7 +12607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>13</v>
       </c>
@@ -12629,7 +12633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>9</v>
       </c>
@@ -12655,7 +12659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>9</v>
       </c>
@@ -12678,7 +12682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>13</v>
       </c>
@@ -12701,7 +12705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>13</v>
       </c>
@@ -12727,7 +12731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>9</v>
       </c>
@@ -12750,7 +12754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>13</v>
       </c>
@@ -12776,7 +12780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>9</v>
       </c>
@@ -12799,7 +12803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>13</v>
       </c>
@@ -12825,7 +12829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>9</v>
       </c>
@@ -12848,7 +12852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>8</v>
       </c>
@@ -12871,7 +12875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>8</v>
       </c>
@@ -12894,7 +12898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>13</v>
       </c>
@@ -12920,7 +12924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>9</v>
       </c>
@@ -12943,7 +12947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>9</v>
       </c>
@@ -12969,7 +12973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>13</v>
       </c>
@@ -12992,7 +12996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>13</v>
       </c>
@@ -13018,7 +13022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>9</v>
       </c>
@@ -13041,7 +13045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>9</v>
       </c>
@@ -13067,7 +13071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>13</v>
       </c>
@@ -13090,7 +13094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>8</v>
       </c>
@@ -13113,7 +13117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>9</v>
       </c>
@@ -13139,7 +13143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>13</v>
       </c>
@@ -13162,7 +13166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>13</v>
       </c>
@@ -13188,7 +13192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>9</v>
       </c>
@@ -13211,7 +13215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>9</v>
       </c>
@@ -13237,7 +13241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>13</v>
       </c>
@@ -13260,7 +13264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>13</v>
       </c>
@@ -13286,7 +13290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>9</v>
       </c>
@@ -13309,7 +13313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>9</v>
       </c>
@@ -13335,7 +13339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>13</v>
       </c>
@@ -13358,7 +13362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>13</v>
       </c>
@@ -13384,7 +13388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>9</v>
       </c>
@@ -13407,7 +13411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>9</v>
       </c>
@@ -13433,7 +13437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>13</v>
       </c>
@@ -13456,7 +13460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>13</v>
       </c>
@@ -13482,7 +13486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>9</v>
       </c>
@@ -13505,7 +13509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>9</v>
       </c>
@@ -13531,7 +13535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>13</v>
       </c>
@@ -13554,7 +13558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>13</v>
       </c>
@@ -13580,7 +13584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>9</v>
       </c>
@@ -13603,7 +13607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>9</v>
       </c>
@@ -13629,7 +13633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>13</v>
       </c>
@@ -13652,7 +13656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>13</v>
       </c>
@@ -13678,7 +13682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>9</v>
       </c>
@@ -13704,7 +13708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>9</v>
       </c>
@@ -13727,7 +13731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>13</v>
       </c>
@@ -13750,7 +13754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>13</v>
       </c>
@@ -13776,7 +13780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>9</v>
       </c>
@@ -13799,7 +13803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>13</v>
       </c>
@@ -13825,7 +13829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>9</v>
       </c>
@@ -13848,7 +13852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>9</v>
       </c>
@@ -13874,7 +13878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>13</v>
       </c>
@@ -13897,7 +13901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>13</v>
       </c>
@@ -13923,7 +13927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>9</v>
       </c>
@@ -13946,7 +13950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>9</v>
       </c>
@@ -13972,7 +13976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>13</v>
       </c>
@@ -13995,7 +13999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>13</v>
       </c>
@@ -14021,7 +14025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>9</v>
       </c>
@@ -14044,7 +14048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>8</v>
       </c>
@@ -14067,7 +14071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>8</v>
       </c>
@@ -14090,7 +14094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>9</v>
       </c>
@@ -14116,7 +14120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>13</v>
       </c>
@@ -14139,7 +14143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>9</v>
       </c>
@@ -14165,7 +14169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>13</v>
       </c>
@@ -14188,7 +14192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>8</v>
       </c>
@@ -14211,7 +14215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>9</v>
       </c>
@@ -14237,7 +14241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>13</v>
       </c>
@@ -14260,7 +14264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>9</v>
       </c>
@@ -14286,7 +14290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>13</v>
       </c>
@@ -14309,7 +14313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>9</v>
       </c>
@@ -14335,7 +14339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>13</v>
       </c>
@@ -14358,7 +14362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>9</v>
       </c>
@@ -14384,7 +14388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>13</v>
       </c>
@@ -14407,7 +14411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>9</v>
       </c>
@@ -14433,7 +14437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>13</v>
       </c>
@@ -14456,7 +14460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>9</v>
       </c>
@@ -14482,7 +14486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>13</v>
       </c>
@@ -14505,7 +14509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>9</v>
       </c>
@@ -14531,7 +14535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>13</v>
       </c>
@@ -14554,7 +14558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>9</v>
       </c>
@@ -14580,7 +14584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>13</v>
       </c>
@@ -14603,7 +14607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>13</v>
       </c>
@@ -14629,7 +14633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>9</v>
       </c>
@@ -14652,7 +14656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>9</v>
       </c>
@@ -14678,7 +14682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>13</v>
       </c>
@@ -14701,7 +14705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>13</v>
       </c>
@@ -14727,7 +14731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>9</v>
       </c>
@@ -14750,7 +14754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>9</v>
       </c>
@@ -14776,7 +14780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>13</v>
       </c>
@@ -14799,7 +14803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>13</v>
       </c>
@@ -14825,7 +14829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>9</v>
       </c>
@@ -14848,7 +14852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>8</v>
       </c>
@@ -14871,7 +14875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>8</v>
       </c>
@@ -14894,7 +14898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>9</v>
       </c>
@@ -14920,7 +14924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>13</v>
       </c>
@@ -14943,7 +14947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>13</v>
       </c>
@@ -14969,7 +14973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>9</v>
       </c>
@@ -14992,7 +14996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>9</v>
       </c>
@@ -15018,7 +15022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>13</v>
       </c>
@@ -15041,7 +15045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>8</v>
       </c>
@@ -15064,7 +15068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>9</v>
       </c>
@@ -15090,7 +15094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>13</v>
       </c>
@@ -15113,7 +15117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>9</v>
       </c>
@@ -15139,7 +15143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>13</v>
       </c>
@@ -15162,7 +15166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>9</v>
       </c>
@@ -15188,7 +15192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>13</v>
       </c>
@@ -15211,7 +15215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>9</v>
       </c>
@@ -15237,7 +15241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>13</v>
       </c>
@@ -15260,7 +15264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>9</v>
       </c>
@@ -15286,7 +15290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>13</v>
       </c>
@@ -15309,7 +15313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>9</v>
       </c>
@@ -15335,7 +15339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>13</v>
       </c>
@@ -15358,7 +15362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>9</v>
       </c>
@@ -15384,7 +15388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>13</v>
       </c>
@@ -15407,7 +15411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>9</v>
       </c>
@@ -15433,7 +15437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>13</v>
       </c>
@@ -15456,7 +15460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>13</v>
       </c>
@@ -15482,7 +15486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>9</v>
       </c>
@@ -15505,7 +15509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>9</v>
       </c>
@@ -15531,7 +15535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>13</v>
       </c>
@@ -15554,7 +15558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>9</v>
       </c>
@@ -15580,7 +15584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>13</v>
       </c>
@@ -15603,7 +15607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>13</v>
       </c>
@@ -15629,7 +15633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>9</v>
       </c>
@@ -15652,7 +15656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>9</v>
       </c>
@@ -15678,7 +15682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>13</v>
       </c>
@@ -15701,7 +15705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>8</v>
       </c>
@@ -15724,7 +15728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>8</v>
       </c>
@@ -15747,7 +15751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>9</v>
       </c>
@@ -15773,7 +15777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>13</v>
       </c>
@@ -15796,7 +15800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>8</v>
       </c>
@@ -15819,7 +15823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>9</v>
       </c>
@@ -15845,7 +15849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>13</v>
       </c>
@@ -15868,7 +15872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>9</v>
       </c>
@@ -15894,7 +15898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>13</v>
       </c>
@@ -15917,7 +15921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>9</v>
       </c>
@@ -15943,7 +15947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>13</v>
       </c>
@@ -15966,7 +15970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>9</v>
       </c>
@@ -15992,7 +15996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>13</v>
       </c>
@@ -16015,7 +16019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>9</v>
       </c>
@@ -16041,7 +16045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>13</v>
       </c>
@@ -16064,7 +16068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>9</v>
       </c>
@@ -16090,7 +16094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>13</v>
       </c>
@@ -16113,7 +16117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>9</v>
       </c>
@@ -16139,7 +16143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>13</v>
       </c>
@@ -16162,7 +16166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>9</v>
       </c>
@@ -16188,7 +16192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>13</v>
       </c>
@@ -16211,7 +16215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>8</v>
       </c>
@@ -16234,7 +16238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>8</v>
       </c>
@@ -16257,7 +16261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>9</v>
       </c>
@@ -16283,7 +16287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>13</v>
       </c>
@@ -16306,7 +16310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>9</v>
       </c>
@@ -16332,7 +16336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>13</v>
       </c>
@@ -16355,7 +16359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>9</v>
       </c>
@@ -16381,7 +16385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>13</v>
       </c>
@@ -16404,7 +16408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>9</v>
       </c>
@@ -16430,7 +16434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>13</v>
       </c>
@@ -16453,7 +16457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>8</v>
       </c>
@@ -16476,7 +16480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>9</v>
       </c>
@@ -16502,7 +16506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>13</v>
       </c>
@@ -16525,7 +16529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>9</v>
       </c>
@@ -16551,7 +16555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>13</v>
       </c>
@@ -16574,7 +16578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>9</v>
       </c>
@@ -16600,7 +16604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>13</v>
       </c>
@@ -16623,7 +16627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>9</v>
       </c>
@@ -16649,7 +16653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>13</v>
       </c>
@@ -16672,7 +16676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>9</v>
       </c>
@@ -16698,7 +16702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>13</v>
       </c>
@@ -16721,7 +16725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>9</v>
       </c>
@@ -16747,7 +16751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>13</v>
       </c>
@@ -16770,7 +16774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>9</v>
       </c>
@@ -16796,7 +16800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>13</v>
       </c>
@@ -16819,7 +16823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>9</v>
       </c>
@@ -16845,7 +16849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>13</v>
       </c>
@@ -16868,7 +16872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>9</v>
       </c>
@@ -16894,7 +16898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>13</v>
       </c>
@@ -16917,7 +16921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>8</v>
       </c>
@@ -16940,7 +16944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>8</v>
       </c>
@@ -16963,7 +16967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>9</v>
       </c>
@@ -16989,7 +16993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>13</v>
       </c>
@@ -17012,7 +17016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>9</v>
       </c>
@@ -17038,7 +17042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>13</v>
       </c>
@@ -17061,7 +17065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>8</v>
       </c>
@@ -17084,7 +17088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>9</v>
       </c>
@@ -17110,7 +17114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>13</v>
       </c>
@@ -17133,7 +17137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>9</v>
       </c>
@@ -17159,7 +17163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>13</v>
       </c>
@@ -17182,7 +17186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>9</v>
       </c>
@@ -17208,7 +17212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>13</v>
       </c>
@@ -17231,7 +17235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>9</v>
       </c>
@@ -17257,7 +17261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>13</v>
       </c>
@@ -17280,7 +17284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>9</v>
       </c>
@@ -17306,7 +17310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>13</v>
       </c>
@@ -17329,7 +17333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>9</v>
       </c>
@@ -17355,7 +17359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>13</v>
       </c>
@@ -17378,7 +17382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>9</v>
       </c>
@@ -17404,7 +17408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>13</v>
       </c>
@@ -17427,7 +17431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>9</v>
       </c>
@@ -17453,7 +17457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>13</v>
       </c>
@@ -17476,7 +17480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>8</v>
       </c>
@@ -17499,7 +17503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>8</v>
       </c>
@@ -17522,7 +17526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>9</v>
       </c>
@@ -17548,7 +17552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>13</v>
       </c>
@@ -17571,7 +17575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>9</v>
       </c>
@@ -17597,7 +17601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>13</v>
       </c>
@@ -17620,7 +17624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>9</v>
       </c>
@@ -17646,7 +17650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>13</v>
       </c>
@@ -17669,7 +17673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>9</v>
       </c>
@@ -17695,7 +17699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>13</v>
       </c>
@@ -17718,7 +17722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>8</v>
       </c>
@@ -17741,7 +17745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>9</v>
       </c>
@@ -17767,7 +17771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>13</v>
       </c>
@@ -17790,7 +17794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>9</v>
       </c>
@@ -17816,7 +17820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>13</v>
       </c>
@@ -17839,7 +17843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>9</v>
       </c>
@@ -17865,7 +17869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>13</v>
       </c>
@@ -17888,7 +17892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>9</v>
       </c>
@@ -17914,7 +17918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>13</v>
       </c>
@@ -17937,7 +17941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>9</v>
       </c>
@@ -17963,7 +17967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>13</v>
       </c>
@@ -17986,7 +17990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>9</v>
       </c>
@@ -18012,7 +18016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>13</v>
       </c>
@@ -18035,7 +18039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>9</v>
       </c>
@@ -18061,7 +18065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>13</v>
       </c>
@@ -18084,7 +18088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>9</v>
       </c>
@@ -18110,7 +18114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>13</v>
       </c>
@@ -18133,7 +18137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>9</v>
       </c>
@@ -18159,7 +18163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>13</v>
       </c>
@@ -18182,7 +18186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>9</v>
       </c>
@@ -18208,7 +18212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>13</v>
       </c>
@@ -18231,7 +18235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>8</v>
       </c>
@@ -18254,7 +18258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>8</v>
       </c>
@@ -18277,7 +18281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>9</v>
       </c>
@@ -18303,7 +18307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>13</v>
       </c>
@@ -18326,7 +18330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>9</v>
       </c>
@@ -18352,7 +18356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>13</v>
       </c>
@@ -18375,7 +18379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>8</v>
       </c>
@@ -18398,7 +18402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>9</v>
       </c>
@@ -18424,7 +18428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>13</v>
       </c>
@@ -18447,7 +18451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>9</v>
       </c>
@@ -18473,7 +18477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>13</v>
       </c>
@@ -18496,7 +18500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>9</v>
       </c>
@@ -18522,7 +18526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>13</v>
       </c>
@@ -18545,7 +18549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>9</v>
       </c>
@@ -18571,7 +18575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>13</v>
       </c>
@@ -18594,7 +18598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>9</v>
       </c>
@@ -18620,7 +18624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>13</v>
       </c>
@@ -18643,7 +18647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>9</v>
       </c>
@@ -18669,7 +18673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>13</v>
       </c>
@@ -18692,7 +18696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>9</v>
       </c>
@@ -18718,7 +18722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>13</v>
       </c>
@@ -18741,7 +18745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>9</v>
       </c>
@@ -18767,7 +18771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>13</v>
       </c>
@@ -18790,7 +18794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>8</v>
       </c>
@@ -18813,7 +18817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>8</v>
       </c>
@@ -18836,7 +18840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>9</v>
       </c>
@@ -18862,7 +18866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>13</v>
       </c>
@@ -18885,7 +18889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>9</v>
       </c>
@@ -18911,7 +18915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>13</v>
       </c>
@@ -18934,7 +18938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>8</v>
       </c>
@@ -18957,7 +18961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>9</v>
       </c>
@@ -18983,7 +18987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>13</v>
       </c>
@@ -19006,7 +19010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>9</v>
       </c>
@@ -19032,7 +19036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>13</v>
       </c>
@@ -19055,7 +19059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>9</v>
       </c>
@@ -19081,7 +19085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>13</v>
       </c>
@@ -19104,7 +19108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>9</v>
       </c>
@@ -19130,7 +19134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>13</v>
       </c>
@@ -19153,7 +19157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>9</v>
       </c>
@@ -19179,7 +19183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>13</v>
       </c>
@@ -19202,7 +19206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>9</v>
       </c>
@@ -19228,7 +19232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>13</v>
       </c>
@@ -19251,7 +19255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>8</v>
       </c>
@@ -19274,7 +19278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>8</v>
       </c>
@@ -19297,7 +19301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>9</v>
       </c>
@@ -19323,7 +19327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>13</v>
       </c>
@@ -19346,7 +19350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>9</v>
       </c>
@@ -19372,7 +19376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>13</v>
       </c>
@@ -19395,7 +19399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>9</v>
       </c>
@@ -19421,7 +19425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>13</v>
       </c>
@@ -19444,7 +19448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>8</v>
       </c>
@@ -19467,7 +19471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>9</v>
       </c>
@@ -19493,7 +19497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>13</v>
       </c>
@@ -19516,7 +19520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>9</v>
       </c>
@@ -19542,7 +19546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>13</v>
       </c>
@@ -19565,7 +19569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>9</v>
       </c>
@@ -19591,7 +19595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>13</v>
       </c>
@@ -19614,7 +19618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>9</v>
       </c>
@@ -19640,7 +19644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>13</v>
       </c>
@@ -19663,7 +19667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>9</v>
       </c>
@@ -19689,7 +19693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>13</v>
       </c>
@@ -19712,7 +19716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>9</v>
       </c>
@@ -19738,7 +19742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>13</v>
       </c>
@@ -19761,7 +19765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>8</v>
       </c>
@@ -19784,7 +19788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>8</v>
       </c>
@@ -19807,7 +19811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>9</v>
       </c>
@@ -19833,7 +19837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>13</v>
       </c>
@@ -19856,7 +19860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>8</v>
       </c>
@@ -19879,7 +19883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>9</v>
       </c>
@@ -19905,7 +19909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>13</v>
       </c>
@@ -20173,13 +20177,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C21D0A-65D6-47B6-8E76-5D8CAE45D404}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C21D0A-65D6-47B6-8E76-5D8CAE45D404}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
+    <ds:schemaRef ds:uri="c6fe3531-949f-4c96-ac1d-b793c48e3f25"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C58A68F-A5E9-4F6F-AD01-06B5D5C01F66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C58A68F-A5E9-4F6F-AD01-06B5D5C01F66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD986A7-2A39-40F9-A024-B808D196BF4D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD986A7-2A39-40F9-A024-B808D196BF4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Bus Planning.xlsx
+++ b/Bus Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rensk\OneDrive\Documents\Toegepaste Wiskunde\Data Science\Jaar 2\renskeiscool\Porject_Group5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/872575_fontys_nl/Documents/Documenten/Python/PJ5 Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7B8792-FE95-46E0-AC59-A75AC2C796B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_0399E22E9067360E62355476585DCE3A87431D38" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE366500-D517-4BCD-A4AF-9BBB621D2634}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2355,17 +2355,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A651" zoomScale="122" workbookViewId="0">
-      <selection activeCell="J706" sqref="J706"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2391,7 +2387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2414,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2440,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2463,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2489,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2512,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2538,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2561,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2587,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2610,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2636,7 +2632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2659,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2685,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2708,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2734,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2757,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2783,7 +2779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2806,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2832,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2855,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2881,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2904,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2930,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2953,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2979,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -3002,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3028,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -3051,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3077,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3094,13 +3090,13 @@
         <v>12</v>
       </c>
       <c r="G30">
-        <v>1.98</v>
+        <v>-157.5</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -3117,13 +3113,13 @@
         <v>52</v>
       </c>
       <c r="G31">
-        <v>-157.5</v>
+        <v>1.98</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -3146,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -3172,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3195,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -3221,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -3247,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -3270,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3293,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -3319,7 +3315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -3342,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -3368,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -3391,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -3417,7 +3413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -3440,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3466,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -3489,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -3515,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -3538,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3564,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -3587,7 +3583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -3610,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3633,7 +3629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -3659,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -3682,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -3708,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -3731,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -3757,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -3780,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -3806,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -3829,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -3855,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -3881,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -3904,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -3927,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -3950,7 +3946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -3976,7 +3972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -3999,7 +3995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -4025,7 +4021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -4051,7 +4047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -4074,7 +4070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -4097,7 +4093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -4123,7 +4119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -4146,7 +4142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -4172,7 +4168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -4195,7 +4191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -4221,7 +4217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -4244,7 +4240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -4270,7 +4266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -4293,7 +4289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -4319,7 +4315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -4342,7 +4338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -4368,7 +4364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -4391,7 +4387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -4417,7 +4413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -4440,7 +4436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -4466,7 +4462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -4489,7 +4485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -4515,7 +4511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -4538,7 +4534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -4564,7 +4560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -4587,7 +4583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -4613,7 +4609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -4636,7 +4632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -4659,7 +4655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -4682,7 +4678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -4708,7 +4704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -4731,7 +4727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -4757,7 +4753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -4783,7 +4779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -4806,7 +4802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -4829,7 +4825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -4855,7 +4851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -4878,7 +4874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -4904,7 +4900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -4927,7 +4923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -4953,7 +4949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -4976,7 +4972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -5002,7 +4998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -5025,7 +5021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -5051,7 +5047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -5074,7 +5070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -5100,7 +5096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -5123,7 +5119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -5149,7 +5145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -5172,7 +5168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -5195,7 +5191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -5218,7 +5214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -5244,7 +5240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -5267,7 +5263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -5293,7 +5289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -5316,7 +5312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -5342,7 +5338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -5365,7 +5361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -5391,7 +5387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -5414,7 +5410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -5440,7 +5436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -5463,7 +5459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -5486,7 +5482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -5512,7 +5508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -5535,7 +5531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>13</v>
       </c>
@@ -5561,7 +5557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -5584,7 +5580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>13</v>
       </c>
@@ -5610,7 +5606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -5633,7 +5629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -5659,7 +5655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -5682,7 +5678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -5708,7 +5704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -5731,7 +5727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -5757,7 +5753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -5780,7 +5776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -5806,7 +5802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -5829,7 +5825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -5855,7 +5851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -5878,7 +5874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -5904,7 +5900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -5927,7 +5923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -5953,7 +5949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -5976,7 +5972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -6002,7 +5998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -6025,7 +6021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -6051,7 +6047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -6074,7 +6070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -6100,7 +6096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -6123,7 +6119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -6149,7 +6145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -6172,7 +6168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -6195,7 +6191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -6218,7 +6214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -6244,7 +6240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -6267,7 +6263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -6293,7 +6289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -6319,7 +6315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -6342,7 +6338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -6365,7 +6361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -6391,7 +6387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -6414,7 +6410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -6440,7 +6436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -6463,7 +6459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -6489,7 +6485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>9</v>
       </c>
@@ -6512,7 +6508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -6538,7 +6534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -6561,7 +6557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -6587,7 +6583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -6613,7 +6609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -6636,7 +6632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -6659,7 +6655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -6685,7 +6681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -6708,7 +6704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -6731,7 +6727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -6754,7 +6750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -6780,7 +6776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -6803,7 +6799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -6826,7 +6822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -6852,7 +6848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -6875,7 +6871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -6901,7 +6897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -6924,7 +6920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -6950,7 +6946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -6973,7 +6969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -6999,7 +6995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -7022,7 +7018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -7048,7 +7044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -7071,7 +7067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -7097,7 +7093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -7120,7 +7116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>13</v>
       </c>
@@ -7146,7 +7142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -7169,7 +7165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -7195,7 +7191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -7218,7 +7214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -7244,7 +7240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -7267,7 +7263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -7293,7 +7289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -7316,7 +7312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -7342,7 +7338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>9</v>
       </c>
@@ -7365,7 +7361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -7391,7 +7387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>9</v>
       </c>
@@ -7414,7 +7410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -7440,7 +7436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -7463,7 +7459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -7489,7 +7485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -7512,7 +7508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -7535,7 +7531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -7558,7 +7554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -7584,7 +7580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>9</v>
       </c>
@@ -7607,7 +7603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -7633,7 +7629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -7656,7 +7652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -7682,7 +7678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>13</v>
       </c>
@@ -7705,7 +7701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -7731,7 +7727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -7754,7 +7750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -7780,7 +7776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -7803,7 +7799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -7826,7 +7822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -7849,7 +7845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>9</v>
       </c>
@@ -7875,7 +7871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -7898,7 +7894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -7921,7 +7917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>9</v>
       </c>
@@ -7947,7 +7943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -7970,7 +7966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -7996,7 +7992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -8019,7 +8015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -8045,7 +8041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -8068,7 +8064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -8094,7 +8090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>13</v>
       </c>
@@ -8117,7 +8113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -8143,7 +8139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>9</v>
       </c>
@@ -8166,7 +8162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>13</v>
       </c>
@@ -8192,7 +8188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>9</v>
       </c>
@@ -8215,7 +8211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -8241,7 +8237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -8264,7 +8260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -8290,7 +8286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>9</v>
       </c>
@@ -8313,7 +8309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -8339,7 +8335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>9</v>
       </c>
@@ -8362,7 +8358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -8388,7 +8384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>9</v>
       </c>
@@ -8411,7 +8407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -8437,7 +8433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>9</v>
       </c>
@@ -8460,7 +8456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>9</v>
       </c>
@@ -8486,7 +8482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>13</v>
       </c>
@@ -8509,7 +8505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -8535,7 +8531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>9</v>
       </c>
@@ -8558,7 +8554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>9</v>
       </c>
@@ -8584,7 +8580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -8607,7 +8603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>13</v>
       </c>
@@ -8633,7 +8629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -8656,7 +8652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -8679,7 +8675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>8</v>
       </c>
@@ -8702,7 +8698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -8728,7 +8724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>13</v>
       </c>
@@ -8751,7 +8747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>13</v>
       </c>
@@ -8777,7 +8773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>9</v>
       </c>
@@ -8800,7 +8796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -8826,7 +8822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>13</v>
       </c>
@@ -8849,7 +8845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>13</v>
       </c>
@@ -8875,7 +8871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -8898,7 +8894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>13</v>
       </c>
@@ -8924,7 +8920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>9</v>
       </c>
@@ -8947,7 +8943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>8</v>
       </c>
@@ -8970,7 +8966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>9</v>
       </c>
@@ -8996,7 +8992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>13</v>
       </c>
@@ -9019,7 +9015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>13</v>
       </c>
@@ -9045,7 +9041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -9068,7 +9064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>13</v>
       </c>
@@ -9094,7 +9090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>9</v>
       </c>
@@ -9117,7 +9113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>13</v>
       </c>
@@ -9143,7 +9139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>9</v>
       </c>
@@ -9166,7 +9162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>13</v>
       </c>
@@ -9192,7 +9188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>9</v>
       </c>
@@ -9215,7 +9211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -9241,7 +9237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>9</v>
       </c>
@@ -9264,7 +9260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>13</v>
       </c>
@@ -9290,7 +9286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>9</v>
       </c>
@@ -9313,7 +9309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>13</v>
       </c>
@@ -9339,7 +9335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>9</v>
       </c>
@@ -9362,7 +9358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>13</v>
       </c>
@@ -9388,7 +9384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -9411,7 +9407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>13</v>
       </c>
@@ -9437,7 +9433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -9460,7 +9456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>13</v>
       </c>
@@ -9486,7 +9482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>9</v>
       </c>
@@ -9509,7 +9505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>8</v>
       </c>
@@ -9532,7 +9528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>8</v>
       </c>
@@ -9555,7 +9551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>13</v>
       </c>
@@ -9581,7 +9577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>9</v>
       </c>
@@ -9604,7 +9600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>9</v>
       </c>
@@ -9630,7 +9626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>13</v>
       </c>
@@ -9653,7 +9649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>13</v>
       </c>
@@ -9679,7 +9675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>9</v>
       </c>
@@ -9702,7 +9698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>9</v>
       </c>
@@ -9728,7 +9724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>13</v>
       </c>
@@ -9751,7 +9747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>13</v>
       </c>
@@ -9777,7 +9773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>9</v>
       </c>
@@ -9800,7 +9796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>13</v>
       </c>
@@ -9826,7 +9822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>9</v>
       </c>
@@ -9849,7 +9845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -9875,7 +9871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>13</v>
       </c>
@@ -9898,7 +9894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>13</v>
       </c>
@@ -9924,7 +9920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>9</v>
       </c>
@@ -9947,7 +9943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>8</v>
       </c>
@@ -9970,7 +9966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>9</v>
       </c>
@@ -9996,7 +9992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>13</v>
       </c>
@@ -10019,7 +10015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>13</v>
       </c>
@@ -10045,7 +10041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>9</v>
       </c>
@@ -10068,7 +10064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>13</v>
       </c>
@@ -10094,7 +10090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>9</v>
       </c>
@@ -10117,7 +10113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>13</v>
       </c>
@@ -10143,7 +10139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -10166,7 +10162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>13</v>
       </c>
@@ -10192,7 +10188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>9</v>
       </c>
@@ -10215,7 +10211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>13</v>
       </c>
@@ -10241,7 +10237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>9</v>
       </c>
@@ -10264,7 +10260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>13</v>
       </c>
@@ -10290,7 +10286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>9</v>
       </c>
@@ -10313,7 +10309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>13</v>
       </c>
@@ -10339,7 +10335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>9</v>
       </c>
@@ -10362,7 +10358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>13</v>
       </c>
@@ -10388,7 +10384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>9</v>
       </c>
@@ -10411,7 +10407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>13</v>
       </c>
@@ -10437,7 +10433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>9</v>
       </c>
@@ -10460,7 +10456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>13</v>
       </c>
@@ -10486,7 +10482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>9</v>
       </c>
@@ -10509,7 +10505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>8</v>
       </c>
@@ -10532,7 +10528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>8</v>
       </c>
@@ -10555,7 +10551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>13</v>
       </c>
@@ -10581,7 +10577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>9</v>
       </c>
@@ -10607,7 +10603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -10630,7 +10626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>13</v>
       </c>
@@ -10653,7 +10649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>13</v>
       </c>
@@ -10679,7 +10675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>9</v>
       </c>
@@ -10702,7 +10698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>13</v>
       </c>
@@ -10728,7 +10724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>9</v>
       </c>
@@ -10751,7 +10747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>13</v>
       </c>
@@ -10777,7 +10773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>9</v>
       </c>
@@ -10800,7 +10796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>13</v>
       </c>
@@ -10826,7 +10822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>9</v>
       </c>
@@ -10849,7 +10845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>9</v>
       </c>
@@ -10875,7 +10871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>13</v>
       </c>
@@ -10898,7 +10894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>13</v>
       </c>
@@ -10924,7 +10920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -10947,7 +10943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>8</v>
       </c>
@@ -10970,7 +10966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>9</v>
       </c>
@@ -10996,7 +10992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>13</v>
       </c>
@@ -11019,7 +11015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>13</v>
       </c>
@@ -11045,7 +11041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>9</v>
       </c>
@@ -11068,7 +11064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>13</v>
       </c>
@@ -11094,7 +11090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>9</v>
       </c>
@@ -11117,7 +11113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>13</v>
       </c>
@@ -11143,7 +11139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>9</v>
       </c>
@@ -11166,7 +11162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>13</v>
       </c>
@@ -11192,7 +11188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>9</v>
       </c>
@@ -11215,7 +11211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>13</v>
       </c>
@@ -11241,7 +11237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>9</v>
       </c>
@@ -11264,7 +11260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>13</v>
       </c>
@@ -11290,7 +11286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>9</v>
       </c>
@@ -11313,7 +11309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>13</v>
       </c>
@@ -11339,7 +11335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>9</v>
       </c>
@@ -11362,7 +11358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>13</v>
       </c>
@@ -11388,7 +11384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>9</v>
       </c>
@@ -11411,7 +11407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>13</v>
       </c>
@@ -11437,7 +11433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>9</v>
       </c>
@@ -11460,7 +11456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>13</v>
       </c>
@@ -11486,7 +11482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>9</v>
       </c>
@@ -11509,7 +11505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>8</v>
       </c>
@@ -11532,7 +11528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>8</v>
       </c>
@@ -11555,7 +11551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>9</v>
       </c>
@@ -11581,7 +11577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>13</v>
       </c>
@@ -11604,7 +11600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>13</v>
       </c>
@@ -11630,7 +11626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>9</v>
       </c>
@@ -11653,7 +11649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>13</v>
       </c>
@@ -11679,7 +11675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>9</v>
       </c>
@@ -11702,7 +11698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>13</v>
       </c>
@@ -11728,7 +11724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>9</v>
       </c>
@@ -11751,7 +11747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>13</v>
       </c>
@@ -11777,7 +11773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>9</v>
       </c>
@@ -11800,7 +11796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>9</v>
       </c>
@@ -11826,7 +11822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>13</v>
       </c>
@@ -11849,7 +11845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>13</v>
       </c>
@@ -11875,7 +11871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>9</v>
       </c>
@@ -11898,7 +11894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>9</v>
       </c>
@@ -11924,7 +11920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>13</v>
       </c>
@@ -11947,7 +11943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>8</v>
       </c>
@@ -11970,7 +11966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>9</v>
       </c>
@@ -11996,7 +11992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>13</v>
       </c>
@@ -12019,7 +12015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>13</v>
       </c>
@@ -12045,7 +12041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>9</v>
       </c>
@@ -12068,7 +12064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>9</v>
       </c>
@@ -12094,7 +12090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>13</v>
       </c>
@@ -12117,7 +12113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>13</v>
       </c>
@@ -12143,7 +12139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>9</v>
       </c>
@@ -12166,7 +12162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>9</v>
       </c>
@@ -12192,7 +12188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>13</v>
       </c>
@@ -12215,7 +12211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>13</v>
       </c>
@@ -12241,7 +12237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>9</v>
       </c>
@@ -12264,7 +12260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>9</v>
       </c>
@@ -12290,7 +12286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>13</v>
       </c>
@@ -12313,7 +12309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>13</v>
       </c>
@@ -12339,7 +12335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>9</v>
       </c>
@@ -12362,7 +12358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>9</v>
       </c>
@@ -12388,7 +12384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>13</v>
       </c>
@@ -12411,7 +12407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>13</v>
       </c>
@@ -12437,7 +12433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>9</v>
       </c>
@@ -12460,7 +12456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>9</v>
       </c>
@@ -12486,7 +12482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>13</v>
       </c>
@@ -12509,7 +12505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>13</v>
       </c>
@@ -12535,7 +12531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>9</v>
       </c>
@@ -12558,7 +12554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>9</v>
       </c>
@@ -12584,7 +12580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>13</v>
       </c>
@@ -12607,7 +12603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>13</v>
       </c>
@@ -12633,7 +12629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>9</v>
       </c>
@@ -12659,7 +12655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>9</v>
       </c>
@@ -12682,7 +12678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>13</v>
       </c>
@@ -12705,7 +12701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>13</v>
       </c>
@@ -12731,7 +12727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>9</v>
       </c>
@@ -12754,7 +12750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>13</v>
       </c>
@@ -12780,7 +12776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>9</v>
       </c>
@@ -12803,7 +12799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>13</v>
       </c>
@@ -12829,7 +12825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>9</v>
       </c>
@@ -12852,7 +12848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>8</v>
       </c>
@@ -12875,7 +12871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>8</v>
       </c>
@@ -12898,7 +12894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>13</v>
       </c>
@@ -12924,7 +12920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>9</v>
       </c>
@@ -12947,7 +12943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>9</v>
       </c>
@@ -12973,7 +12969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>13</v>
       </c>
@@ -12996,7 +12992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>13</v>
       </c>
@@ -13022,7 +13018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>9</v>
       </c>
@@ -13045,7 +13041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>9</v>
       </c>
@@ -13071,7 +13067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>13</v>
       </c>
@@ -13094,7 +13090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>8</v>
       </c>
@@ -13117,7 +13113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>9</v>
       </c>
@@ -13143,7 +13139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>13</v>
       </c>
@@ -13166,7 +13162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>13</v>
       </c>
@@ -13192,7 +13188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>9</v>
       </c>
@@ -13215,7 +13211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>9</v>
       </c>
@@ -13241,7 +13237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>13</v>
       </c>
@@ -13264,7 +13260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>13</v>
       </c>
@@ -13290,7 +13286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>9</v>
       </c>
@@ -13313,7 +13309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>9</v>
       </c>
@@ -13339,7 +13335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>13</v>
       </c>
@@ -13362,7 +13358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>13</v>
       </c>
@@ -13388,7 +13384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>9</v>
       </c>
@@ -13411,7 +13407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>9</v>
       </c>
@@ -13437,7 +13433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>13</v>
       </c>
@@ -13460,7 +13456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>13</v>
       </c>
@@ -13486,7 +13482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>9</v>
       </c>
@@ -13509,7 +13505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>9</v>
       </c>
@@ -13535,7 +13531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>13</v>
       </c>
@@ -13558,7 +13554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>13</v>
       </c>
@@ -13584,7 +13580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>9</v>
       </c>
@@ -13607,7 +13603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>9</v>
       </c>
@@ -13633,7 +13629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>13</v>
       </c>
@@ -13656,7 +13652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>13</v>
       </c>
@@ -13682,7 +13678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>9</v>
       </c>
@@ -13708,7 +13704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>9</v>
       </c>
@@ -13731,7 +13727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>13</v>
       </c>
@@ -13754,7 +13750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>13</v>
       </c>
@@ -13780,7 +13776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>9</v>
       </c>
@@ -13803,7 +13799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>13</v>
       </c>
@@ -13829,7 +13825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>9</v>
       </c>
@@ -13852,7 +13848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>9</v>
       </c>
@@ -13878,7 +13874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>13</v>
       </c>
@@ -13901,7 +13897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>13</v>
       </c>
@@ -13927,7 +13923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>9</v>
       </c>
@@ -13950,7 +13946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>9</v>
       </c>
@@ -13976,7 +13972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>13</v>
       </c>
@@ -13999,7 +13995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>13</v>
       </c>
@@ -14025,7 +14021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>9</v>
       </c>
@@ -14048,7 +14044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>8</v>
       </c>
@@ -14071,7 +14067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>8</v>
       </c>
@@ -14094,7 +14090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>9</v>
       </c>
@@ -14120,7 +14116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>13</v>
       </c>
@@ -14143,7 +14139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>9</v>
       </c>
@@ -14169,7 +14165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>13</v>
       </c>
@@ -14192,7 +14188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>8</v>
       </c>
@@ -14215,7 +14211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>9</v>
       </c>
@@ -14241,7 +14237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>13</v>
       </c>
@@ -14264,7 +14260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>9</v>
       </c>
@@ -14290,7 +14286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>13</v>
       </c>
@@ -14313,7 +14309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>9</v>
       </c>
@@ -14339,7 +14335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>13</v>
       </c>
@@ -14362,7 +14358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>9</v>
       </c>
@@ -14388,7 +14384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>13</v>
       </c>
@@ -14411,7 +14407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>9</v>
       </c>
@@ -14437,7 +14433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>13</v>
       </c>
@@ -14460,7 +14456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>9</v>
       </c>
@@ -14486,7 +14482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>13</v>
       </c>
@@ -14509,7 +14505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>9</v>
       </c>
@@ -14535,7 +14531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>13</v>
       </c>
@@ -14558,7 +14554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>9</v>
       </c>
@@ -14584,7 +14580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>13</v>
       </c>
@@ -14607,7 +14603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>13</v>
       </c>
@@ -14633,7 +14629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>9</v>
       </c>
@@ -14656,7 +14652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>9</v>
       </c>
@@ -14682,7 +14678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>13</v>
       </c>
@@ -14705,7 +14701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>13</v>
       </c>
@@ -14731,7 +14727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>9</v>
       </c>
@@ -14754,7 +14750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>9</v>
       </c>
@@ -14780,7 +14776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>13</v>
       </c>
@@ -14803,7 +14799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>13</v>
       </c>
@@ -14829,7 +14825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>9</v>
       </c>
@@ -14852,7 +14848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>8</v>
       </c>
@@ -14875,7 +14871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>8</v>
       </c>
@@ -14898,7 +14894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>9</v>
       </c>
@@ -14924,7 +14920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>13</v>
       </c>
@@ -14947,7 +14943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>13</v>
       </c>
@@ -14973,7 +14969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>9</v>
       </c>
@@ -14996,7 +14992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>9</v>
       </c>
@@ -15022,7 +15018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>13</v>
       </c>
@@ -15045,7 +15041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>8</v>
       </c>
@@ -15068,7 +15064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>9</v>
       </c>
@@ -15094,7 +15090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>13</v>
       </c>
@@ -15117,7 +15113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>9</v>
       </c>
@@ -15143,7 +15139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>13</v>
       </c>
@@ -15166,7 +15162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>9</v>
       </c>
@@ -15192,7 +15188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>13</v>
       </c>
@@ -15215,7 +15211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>9</v>
       </c>
@@ -15241,7 +15237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>13</v>
       </c>
@@ -15264,7 +15260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>9</v>
       </c>
@@ -15290,7 +15286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>13</v>
       </c>
@@ -15313,7 +15309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>9</v>
       </c>
@@ -15339,7 +15335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>13</v>
       </c>
@@ -15362,7 +15358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>9</v>
       </c>
@@ -15388,7 +15384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>13</v>
       </c>
@@ -15411,7 +15407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>9</v>
       </c>
@@ -15437,7 +15433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>13</v>
       </c>
@@ -15460,7 +15456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>13</v>
       </c>
@@ -15486,7 +15482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>9</v>
       </c>
@@ -15509,7 +15505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>9</v>
       </c>
@@ -15535,7 +15531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>13</v>
       </c>
@@ -15558,7 +15554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>9</v>
       </c>
@@ -15584,7 +15580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>13</v>
       </c>
@@ -15607,7 +15603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>13</v>
       </c>
@@ -15633,7 +15629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>9</v>
       </c>
@@ -15656,7 +15652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>9</v>
       </c>
@@ -15682,7 +15678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>13</v>
       </c>
@@ -15705,7 +15701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>8</v>
       </c>
@@ -15728,7 +15724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>8</v>
       </c>
@@ -15751,7 +15747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>9</v>
       </c>
@@ -15777,7 +15773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>13</v>
       </c>
@@ -15800,7 +15796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>8</v>
       </c>
@@ -15823,7 +15819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>9</v>
       </c>
@@ -15849,7 +15845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>13</v>
       </c>
@@ -15872,7 +15868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>9</v>
       </c>
@@ -15898,7 +15894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>13</v>
       </c>
@@ -15921,7 +15917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>9</v>
       </c>
@@ -15947,7 +15943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>13</v>
       </c>
@@ -15970,7 +15966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>9</v>
       </c>
@@ -15996,7 +15992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>13</v>
       </c>
@@ -16019,7 +16015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>9</v>
       </c>
@@ -16045,7 +16041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>13</v>
       </c>
@@ -16068,7 +16064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>9</v>
       </c>
@@ -16094,7 +16090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>13</v>
       </c>
@@ -16117,7 +16113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>9</v>
       </c>
@@ -16143,7 +16139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>13</v>
       </c>
@@ -16166,7 +16162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>9</v>
       </c>
@@ -16192,7 +16188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>13</v>
       </c>
@@ -16215,7 +16211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>8</v>
       </c>
@@ -16238,7 +16234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>8</v>
       </c>
@@ -16261,7 +16257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>9</v>
       </c>
@@ -16287,7 +16283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>13</v>
       </c>
@@ -16310,7 +16306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>9</v>
       </c>
@@ -16336,7 +16332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>13</v>
       </c>
@@ -16359,7 +16355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>9</v>
       </c>
@@ -16385,7 +16381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>13</v>
       </c>
@@ -16408,7 +16404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>9</v>
       </c>
@@ -16434,7 +16430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>13</v>
       </c>
@@ -16457,7 +16453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>8</v>
       </c>
@@ -16480,7 +16476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>9</v>
       </c>
@@ -16506,7 +16502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>13</v>
       </c>
@@ -16529,7 +16525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>9</v>
       </c>
@@ -16555,7 +16551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>13</v>
       </c>
@@ -16578,7 +16574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>9</v>
       </c>
@@ -16604,7 +16600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>13</v>
       </c>
@@ -16627,7 +16623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>9</v>
       </c>
@@ -16653,7 +16649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>13</v>
       </c>
@@ -16676,7 +16672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>9</v>
       </c>
@@ -16702,7 +16698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>13</v>
       </c>
@@ -16725,7 +16721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>9</v>
       </c>
@@ -16751,7 +16747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>13</v>
       </c>
@@ -16774,7 +16770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>9</v>
       </c>
@@ -16800,7 +16796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>13</v>
       </c>
@@ -16823,7 +16819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>9</v>
       </c>
@@ -16849,7 +16845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>13</v>
       </c>
@@ -16872,7 +16868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>9</v>
       </c>
@@ -16898,7 +16894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>13</v>
       </c>
@@ -16921,7 +16917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>8</v>
       </c>
@@ -16944,7 +16940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>8</v>
       </c>
@@ -16967,7 +16963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>9</v>
       </c>
@@ -16993,7 +16989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>13</v>
       </c>
@@ -17016,7 +17012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>9</v>
       </c>
@@ -17042,7 +17038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>13</v>
       </c>
@@ -17065,7 +17061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>8</v>
       </c>
@@ -17088,7 +17084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>9</v>
       </c>
@@ -17114,7 +17110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>13</v>
       </c>
@@ -17137,7 +17133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>9</v>
       </c>
@@ -17163,7 +17159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>13</v>
       </c>
@@ -17186,7 +17182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>9</v>
       </c>
@@ -17212,7 +17208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>13</v>
       </c>
@@ -17235,7 +17231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>9</v>
       </c>
@@ -17261,7 +17257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>13</v>
       </c>
@@ -17284,7 +17280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>9</v>
       </c>
@@ -17310,7 +17306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>13</v>
       </c>
@@ -17333,7 +17329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>9</v>
       </c>
@@ -17359,7 +17355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>13</v>
       </c>
@@ -17382,7 +17378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>9</v>
       </c>
@@ -17408,7 +17404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>13</v>
       </c>
@@ -17431,7 +17427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>9</v>
       </c>
@@ -17457,7 +17453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>13</v>
       </c>
@@ -17480,7 +17476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>8</v>
       </c>
@@ -17503,7 +17499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>8</v>
       </c>
@@ -17526,7 +17522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>9</v>
       </c>
@@ -17552,7 +17548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>13</v>
       </c>
@@ -17575,7 +17571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>9</v>
       </c>
@@ -17601,7 +17597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>13</v>
       </c>
@@ -17624,7 +17620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>9</v>
       </c>
@@ -17650,7 +17646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>13</v>
       </c>
@@ -17673,7 +17669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>9</v>
       </c>
@@ -17699,7 +17695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>13</v>
       </c>
@@ -17722,7 +17718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>8</v>
       </c>
@@ -17745,7 +17741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>9</v>
       </c>
@@ -17771,7 +17767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>13</v>
       </c>
@@ -17794,7 +17790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>9</v>
       </c>
@@ -17820,7 +17816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>13</v>
       </c>
@@ -17843,7 +17839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>9</v>
       </c>
@@ -17869,7 +17865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>13</v>
       </c>
@@ -17892,7 +17888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>9</v>
       </c>
@@ -17918,7 +17914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>13</v>
       </c>
@@ -17941,7 +17937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>9</v>
       </c>
@@ -17967,7 +17963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>13</v>
       </c>
@@ -17990,7 +17986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>9</v>
       </c>
@@ -18016,7 +18012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>13</v>
       </c>
@@ -18039,7 +18035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>9</v>
       </c>
@@ -18065,7 +18061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>13</v>
       </c>
@@ -18088,7 +18084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>9</v>
       </c>
@@ -18114,7 +18110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>13</v>
       </c>
@@ -18137,7 +18133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>9</v>
       </c>
@@ -18163,7 +18159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>13</v>
       </c>
@@ -18186,7 +18182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>9</v>
       </c>
@@ -18212,7 +18208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>13</v>
       </c>
@@ -18235,7 +18231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>8</v>
       </c>
@@ -18258,7 +18254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>8</v>
       </c>
@@ -18281,7 +18277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>9</v>
       </c>
@@ -18307,7 +18303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>13</v>
       </c>
@@ -18330,7 +18326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>9</v>
       </c>
@@ -18356,7 +18352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>13</v>
       </c>
@@ -18379,7 +18375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>8</v>
       </c>
@@ -18402,7 +18398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>9</v>
       </c>
@@ -18428,7 +18424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>13</v>
       </c>
@@ -18451,7 +18447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>9</v>
       </c>
@@ -18477,7 +18473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>13</v>
       </c>
@@ -18500,7 +18496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>9</v>
       </c>
@@ -18526,7 +18522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>13</v>
       </c>
@@ -18549,7 +18545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>9</v>
       </c>
@@ -18575,7 +18571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>13</v>
       </c>
@@ -18598,7 +18594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>9</v>
       </c>
@@ -18624,7 +18620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>13</v>
       </c>
@@ -18647,7 +18643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>9</v>
       </c>
@@ -18673,7 +18669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>13</v>
       </c>
@@ -18696,7 +18692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>9</v>
       </c>
@@ -18722,7 +18718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>13</v>
       </c>
@@ -18745,7 +18741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>9</v>
       </c>
@@ -18771,7 +18767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>13</v>
       </c>
@@ -18794,7 +18790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>8</v>
       </c>
@@ -18817,7 +18813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>8</v>
       </c>
@@ -18840,7 +18836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>9</v>
       </c>
@@ -18866,7 +18862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>13</v>
       </c>
@@ -18889,7 +18885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>9</v>
       </c>
@@ -18915,7 +18911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>13</v>
       </c>
@@ -18938,7 +18934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>8</v>
       </c>
@@ -18961,7 +18957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>9</v>
       </c>
@@ -18987,7 +18983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>13</v>
       </c>
@@ -19010,7 +19006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>9</v>
       </c>
@@ -19036,7 +19032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>13</v>
       </c>
@@ -19059,7 +19055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>9</v>
       </c>
@@ -19085,7 +19081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>13</v>
       </c>
@@ -19108,7 +19104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>9</v>
       </c>
@@ -19134,7 +19130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>13</v>
       </c>
@@ -19157,7 +19153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>9</v>
       </c>
@@ -19183,7 +19179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>13</v>
       </c>
@@ -19206,7 +19202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>9</v>
       </c>
@@ -19232,7 +19228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>13</v>
       </c>
@@ -19255,7 +19251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>8</v>
       </c>
@@ -19278,7 +19274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>8</v>
       </c>
@@ -19301,7 +19297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>9</v>
       </c>
@@ -19327,7 +19323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>13</v>
       </c>
@@ -19350,7 +19346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>9</v>
       </c>
@@ -19376,7 +19372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>13</v>
       </c>
@@ -19399,7 +19395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>9</v>
       </c>
@@ -19425,7 +19421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>13</v>
       </c>
@@ -19448,7 +19444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>8</v>
       </c>
@@ -19471,7 +19467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>9</v>
       </c>
@@ -19497,7 +19493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>13</v>
       </c>
@@ -19520,7 +19516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>9</v>
       </c>
@@ -19546,7 +19542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>13</v>
       </c>
@@ -19569,7 +19565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>9</v>
       </c>
@@ -19595,7 +19591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>13</v>
       </c>
@@ -19618,7 +19614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>9</v>
       </c>
@@ -19644,7 +19640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>13</v>
       </c>
@@ -19667,7 +19663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>9</v>
       </c>
@@ -19693,7 +19689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>13</v>
       </c>
@@ -19716,7 +19712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>9</v>
       </c>
@@ -19742,7 +19738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>13</v>
       </c>
@@ -19765,7 +19761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>8</v>
       </c>
@@ -19788,7 +19784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>8</v>
       </c>
@@ -19811,7 +19807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>9</v>
       </c>
@@ -19837,7 +19833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>13</v>
       </c>
@@ -19860,7 +19856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>8</v>
       </c>
@@ -19883,7 +19879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>9</v>
       </c>
@@ -19909,7 +19905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>13</v>
       </c>
@@ -20177,38 +20173,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C21D0A-65D6-47B6-8E76-5D8CAE45D404}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
-    <ds:schemaRef ds:uri="c6fe3531-949f-4c96-ac1d-b793c48e3f25"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C21D0A-65D6-47B6-8E76-5D8CAE45D404}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C58A68F-A5E9-4F6F-AD01-06B5D5C01F66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C58A68F-A5E9-4F6F-AD01-06B5D5C01F66}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD986A7-2A39-40F9-A024-B808D196BF4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD986A7-2A39-40F9-A024-B808D196BF4D}"/>
 </file>